--- a/Dashboards-test/ZR.xlsx
+++ b/Dashboards-test/ZR.xlsx
@@ -18,15 +18,15 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$49</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$50</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$2:$E$2</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$49</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$50</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
-    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$49</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$49</x:definedName>
+    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$50</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$50</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -58,43 +58,49 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
+    <x:t>TwinX22</x:t>
+  </x:si>
+  <x:si>
     <x:t>172342</x:t>
   </x:si>
   <x:si>
     <x:t>MUTANtE</x:t>
   </x:si>
   <x:si>
+    <x:t>Evan_player</x:t>
+  </x:si>
+  <x:si>
     <x:t>UltraTerminator</x:t>
   </x:si>
   <x:si>
-    <x:t>yzz</x:t>
-  </x:si>
-  <x:si>
     <x:t>Zera</x:t>
   </x:si>
   <x:si>
-    <x:t>Evan_player</x:t>
-  </x:si>
-  <x:si>
     <x:t>GoodMorning9000</x:t>
   </x:si>
   <x:si>
+    <x:t>Adeadmeme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kill you all 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason12345</x:t>
+  </x:si>
+  <x:si>
     <x:t>Miku Nakano</x:t>
   </x:si>
   <x:si>
-    <x:t>kill you all 2</x:t>
+    <x:t>kickerkitten</x:t>
   </x:si>
   <x:si>
     <x:t>Metal</x:t>
   </x:si>
   <x:si>
-    <x:t>kickerkitten</x:t>
-  </x:si>
-  <x:si>
     <x:t>jacksob</x:t>
   </x:si>
   <x:si>
-    <x:t>Adeadmeme</x:t>
+    <x:t>Jelly YT 4</x:t>
   </x:si>
   <x:si>
     <x:t>Sniper King</x:t>
@@ -106,12 +112,12 @@
     <x:t>CLIPPER</x:t>
   </x:si>
   <x:si>
+    <x:t>yoshi</x:t>
+  </x:si>
+  <x:si>
     <x:t>DARKKILLER</x:t>
   </x:si>
   <x:si>
-    <x:t>yoshi</x:t>
-  </x:si>
-  <x:si>
     <x:t>MARVIN-054</x:t>
   </x:si>
   <x:si>
@@ -181,9 +187,6 @@
     <x:t>Matthew777</x:t>
   </x:si>
   <x:si>
-    <x:t>Jelly YT 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>blaa</x:t>
   </x:si>
   <x:si>
@@ -238,79 +241,235 @@
     <x:t>24,0 (551/23)</x:t>
   </x:si>
   <x:si>
+    <x:t>5,5 (2058/372)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,8 (187/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9 (70/18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (162/37)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,4 (393/61)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8 (234/30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,4 (276/43)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6 (322/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (21/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,2 (62/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,4 (72/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (152/41)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,9 (54/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,8 (53/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,9 (766/156)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,4 (103/19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,5 (15/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,0 (14/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9 (162/42)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,0 (160/20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,2 (62/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,5 (19/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,1 (102/20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (11/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9 (97/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,2 (9341/2203)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (162/43)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (530/180)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,1 (1176/193)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (670/151)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,5 (795/176)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,7 (2089/313)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9 (811/209)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (32/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (207/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (1200/380)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (929/246)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (81/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (659/213)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (2430/612)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5 (257/74)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (191/56)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,7 (103/18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (175/46)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6 (313/56)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (99/26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,3 (43/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (192/73)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (152/66)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (329/96)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (104/26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,6 (472/72)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9 (647/165)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,8 (75/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (116/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (40/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6 (78/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (55/17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (54/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (152/45)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,1 (77/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (2135/556)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,7 (42/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (14/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,3 (123/23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (293/97)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,9 (142/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (222/71)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (227/73)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,8 (43/9)</x:t>
+  </x:si>
+  <x:si>
     <x:t>- (/)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,6 (2005/361)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,8 (187/39)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9 (70/18)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,4 (162/37)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,4 (393/61)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8 (234/30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,4 (276/43)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6 (322/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (21/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,2 (62/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,4 (72/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7 (152/41)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,9 (54/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,1 (669/131)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,4 (103/19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,5 (15/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,0 (14/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9 (162/42)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,0 (160/20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,2 (62/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,5 (19/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,1 (102/20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (11/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (2114/531)</x:t>
+    <x:t>6,1 (55/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (313/71)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,8 (202/35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6 (422/117)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (37/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (2279/602)</x:t>
   </x:si>
   <x:si>
     <x:t>4,6 (302/65)</x:t>
@@ -343,31 +502,10 @@
     <x:t>9,2 (231/25)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,8 (570/150)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,8 (75/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6 (116/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (40/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6 (78/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (55/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (54/21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (152/45)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (2356/628)</x:t>
+    <x:t>2,3 (165/71)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (2416/650)</x:t>
   </x:si>
   <x:si>
     <x:t>4,2 (227/54)</x:t>
@@ -406,43 +544,28 @@
     <x:t>3,3 (114/35)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,6 (1854/514)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5 (257/74)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (191/56)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,7 (103/18)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (175/46)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6 (313/56)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (99/26)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,3 (43/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (192/73)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (152/66)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (329/96)</x:t>
+    <x:t>2,5 (35/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (25/8)</x:t>
   </x:si>
   <x:si>
     <x:t>3,5 (101/29)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,5 (5740/1659)</x:t>
+    <x:t>3,4 (24/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,3 (19/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (5/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (6510/2009)</x:t>
   </x:si>
   <x:si>
     <x:t>2,2 (55/25)</x:t>
@@ -481,19 +604,13 @@
     <x:t>4,4 (654/149)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4 (24/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,3 (19/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0 (0/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (5/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,3 (796/243)</x:t>
+    <x:t>2,4 (610/254)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (160/96)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (1118/357)</x:t>
   </x:si>
   <x:si>
     <x:t>2,8 (110/39)</x:t>
@@ -505,7 +622,22 @@
     <x:t>3,4 (449/134)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,7 (543/198)</x:t>
+    <x:t>2,9 (307/107)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (15/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (799/274)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (171/72)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (628/202)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (606/224)</x:t>
   </x:si>
   <x:si>
     <x:t>2,6 (277/106)</x:t>
@@ -520,7 +652,10 @@
     <x:t>3,9 (154/39)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,6 (370/141)</x:t>
+    <x:t>2,4 (63/26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (606/226)</x:t>
   </x:si>
   <x:si>
     <x:t>2,2 (54/24)</x:t>
@@ -544,7 +679,10 @@
     <x:t>1,9 (54/28)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,5 (933/378)</x:t>
+    <x:t>2,8 (236/85)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (1084/446)</x:t>
   </x:si>
   <x:si>
     <x:t>2,8 (17/6)</x:t>
@@ -583,7 +721,10 @@
     <x:t>3,3 (92/28)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,4 (171/72)</x:t>
+    <x:t>2,2 (103/46)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (48/22)</x:t>
   </x:si>
   <x:si>
     <x:t>2,2 (1046/466)</x:t>
@@ -634,7 +775,7 @@
     <x:t>1,0 (2/2)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (1058/500)</x:t>
+    <x:t>2,1 (1147/558)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (27/20)</x:t>
@@ -670,6 +811,12 @@
     <x:t>3,2 (83/26)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,5 (89/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (450/279)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,6 (74/46)</x:t>
   </x:si>
   <x:si>
@@ -691,22 +838,7 @@
     <x:t>0,5 (1/2)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,4 (1265/924)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (472/296)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (345/267)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (223/174)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (225/187)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (313/262)</x:t>
+    <x:t>1,2 (545/462)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (167/173)</x:t>
@@ -721,7 +853,10 @@
     <x:t>2,1 (101/49)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,1 (714/626)</x:t>
+    <x:t>1,2 (232/200)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (813/700)</x:t>
   </x:si>
   <x:si>
     <x:t>1,5 (3/2)</x:t>
@@ -740,6 +875,9 @@
   </x:si>
   <x:si>
     <x:t>1,3 (147/109)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (99/74)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1219,46 +1357,52 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>25611.7251163193</x:v>
+        <x:v>24077.7187633929</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>3068827.78920834</x:v>
+        <x:v>1060261.2231875</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>6974.46906249982</x:v>
       </x:c>
       <x:c r="F2" s="16" t="n">
-        <x:v>28485.1693333336</x:v>
+        <x:v>19003.45175</x:v>
       </x:c>
       <x:c r="G2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>50425.5493958335</x:v>
       </x:c>
       <x:c r="H2" s="16" t="n">
-        <x:v>30166.6269999999</x:v>
+        <x:v>25521.1086666669</x:v>
       </x:c>
       <x:c r="I2" s="16" t="n">
-        <x:v>4270.49591666693</x:v>
+        <x:v>29366.4923958333</x:v>
       </x:c>
       <x:c r="J2" s="16" t="n">
-        <x:v>48995.236145833</x:v>
+        <x:v>79981.336958334</x:v>
       </x:c>
       <x:c r="K2" s="16" t="n">
-        <x:v>86901.9697291665</x:v>
+        <x:v>24321.9551666667</x:v>
       </x:c>
       <x:c r="L2" s="16" t="n">
-        <x:v>3383.75524999946</x:v>
+        <x:v>903.922291666619</x:v>
       </x:c>
       <x:c r="M2" s="16" t="n">
-        <x:v>11529.5898958328</x:v>
+        <x:v>6274.20054166706</x:v>
       </x:c>
       <x:c r="N2" s="16" t="n">
-        <x:v>19490.8798958343</x:v>
+        <x:v>41865.603291666</x:v>
       </x:c>
       <x:c r="O2" s="16" t="n">
-        <x:v>36950.3546041665</x:v>
+        <x:v>32231.2588333329</x:v>
       </x:c>
       <x:c r="P2" s="16" t="n">
-        <x:v>37166.6236249991</x:v>
+        <x:v>1844.71987499972</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>18373.9944583342</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1266,46 +1410,52 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>22205.7941874991</x:v>
+        <x:v>21952.9072425594</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>4620402.05245832</x:v>
+        <x:v>3068827.78920834</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
-        <x:v>3028.57402083278</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="16" t="n">
-        <x:v>48006.0870624958</x:v>
+        <x:v>28485.1693333336</x:v>
       </x:c>
       <x:c r="G3" s="16" t="n">
-        <x:v>10637.7917083325</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="16" t="n">
-        <x:v>45783.2120624948</x:v>
+        <x:v>30166.6269999999</x:v>
       </x:c>
       <x:c r="I3" s="16" t="n">
-        <x:v>13448.8328541657</x:v>
+        <x:v>4270.49591666693</x:v>
       </x:c>
       <x:c r="J3" s="16" t="n">
-        <x:v>25229.5648541646</x:v>
+        <x:v>48995.236145833</x:v>
       </x:c>
       <x:c r="K3" s="16" t="n">
-        <x:v>1263.22816666681</x:v>
+        <x:v>86901.9697291665</x:v>
       </x:c>
       <x:c r="L3" s="16" t="n">
-        <x:v>9040.60295833368</x:v>
+        <x:v>3383.75524999946</x:v>
       </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>34667.0468958337</x:v>
+        <x:v>11529.5898958328</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>34896.1847708356</x:v>
+        <x:v>19490.8798958343</x:v>
       </x:c>
       <x:c r="O3" s="16" t="n">
-        <x:v>12805.1614791667</x:v>
+        <x:v>36950.3546041665</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
-        <x:v>27663.243416667</x:v>
+        <x:v>37166.6236249991</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1313,28 +1463,52 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>13602.4837291666</x:v>
+        <x:v>21090.5759568445</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>234984.689812499</x:v>
-      </x:c>
-      <x:c r="E4" s="16" t="s"/>
-      <x:c r="F4" s="16" t="s"/>
-      <x:c r="G4" s="16" t="s"/>
-      <x:c r="H4" s="16" t="s"/>
-      <x:c r="I4" s="16" t="s"/>
-      <x:c r="J4" s="16" t="s"/>
-      <x:c r="K4" s="16" t="s"/>
-      <x:c r="L4" s="16" t="s"/>
-      <x:c r="M4" s="16" t="s"/>
+        <x:v>4649200.58560416</x:v>
+      </x:c>
+      <x:c r="E4" s="16" t="n">
+        <x:v>3028.57402083278</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="n">
+        <x:v>48006.0870624958</x:v>
+      </x:c>
+      <x:c r="G4" s="16" t="n">
+        <x:v>10637.7917083325</x:v>
+      </x:c>
+      <x:c r="H4" s="16" t="n">
+        <x:v>45783.2120624948</x:v>
+      </x:c>
+      <x:c r="I4" s="16" t="n">
+        <x:v>13448.8328541657</x:v>
+      </x:c>
+      <x:c r="J4" s="16" t="n">
+        <x:v>25229.5648541646</x:v>
+      </x:c>
+      <x:c r="K4" s="16" t="n">
+        <x:v>1263.22816666681</x:v>
+      </x:c>
+      <x:c r="L4" s="16" t="n">
+        <x:v>9040.60295833368</x:v>
+      </x:c>
+      <x:c r="M4" s="16" t="n">
+        <x:v>34667.0468958337</x:v>
+      </x:c>
       <x:c r="N4" s="16" t="n">
-        <x:v>3476.09237500004</x:v>
+        <x:v>34896.1847708356</x:v>
       </x:c>
       <x:c r="O4" s="16" t="n">
-        <x:v>15505.5166666665</x:v>
+        <x:v>12805.1614791667</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
-        <x:v>21825.8421458333</x:v>
+        <x:v>27663.243416667</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>23784.9488124996</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>5013.58433333319</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1342,79 +1516,87 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>11829.9471166667</x:v>
+        <x:v>12543.5729821433</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>516683.181291663</x:v>
-      </x:c>
-      <x:c r="E5" s="16" t="s"/>
-      <x:c r="F5" s="16" t="s"/>
-      <x:c r="G5" s="16" t="s"/>
-      <x:c r="H5" s="16" t="s"/>
-      <x:c r="I5" s="16" t="s"/>
+        <x:v>986524.645020841</x:v>
+      </x:c>
+      <x:c r="E5" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="16" t="n">
+        <x:v>14675.659833333</x:v>
+      </x:c>
+      <x:c r="G5" s="16" t="n">
+        <x:v>10132.9087083337</x:v>
+      </x:c>
+      <x:c r="H5" s="16" t="n">
+        <x:v>9893.90727083397</x:v>
+      </x:c>
+      <x:c r="I5" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="J5" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>13694.9771041675</x:v>
       </x:c>
       <x:c r="K5" s="16" t="n">
-        <x:v>23200.8847916668</x:v>
+        <x:v>27198.3764375012</x:v>
       </x:c>
       <x:c r="L5" s="16" t="n">
-        <x:v>14125.3296250001</x:v>
+        <x:v>6785.00722916692</x:v>
       </x:c>
       <x:c r="M5" s="16" t="n">
-        <x:v>9381.02433333307</x:v>
+        <x:v>7101.88233333325</x:v>
       </x:c>
       <x:c r="N5" s="16" t="n">
-        <x:v>12442.4968333333</x:v>
-      </x:c>
-      <x:c r="O5" s="16" t="s"/>
-      <x:c r="P5" s="16" t="s"/>
+        <x:v>11555.0192291668</x:v>
+      </x:c>
+      <x:c r="O5" s="16" t="n">
+        <x:v>8266.94268750015</x:v>
+      </x:c>
+      <x:c r="P5" s="16" t="n">
+        <x:v>20558.3333333336</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>6463.9599375003</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
+        <x:v>39283.0476458353</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
       <x:c r="B6" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>11250.7733263888</x:v>
+        <x:v>11088.3703208333</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>1314416.38989584</x:v>
-      </x:c>
-      <x:c r="E6" s="16" t="n">
-        <x:v>21481.4164375004</x:v>
-      </x:c>
-      <x:c r="F6" s="16" t="n">
-        <x:v>7403.21904166648</x:v>
-      </x:c>
-      <x:c r="G6" s="16" t="n">
-        <x:v>15039.560208333</x:v>
-      </x:c>
-      <x:c r="H6" s="16" t="n">
-        <x:v>2756.19960416644</x:v>
-      </x:c>
-      <x:c r="I6" s="16" t="n">
-        <x:v>2455.79329166654</x:v>
-      </x:c>
-      <x:c r="J6" s="16" t="n">
-        <x:v>42353.360604167</x:v>
-      </x:c>
-      <x:c r="K6" s="16" t="n">
-        <x:v>4273.58633333351</x:v>
-      </x:c>
-      <x:c r="L6" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M6" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>249619.090229165</x:v>
+      </x:c>
+      <x:c r="E6" s="16" t="s"/>
+      <x:c r="F6" s="16" t="s"/>
+      <x:c r="G6" s="16" t="s"/>
+      <x:c r="H6" s="16" t="s"/>
+      <x:c r="I6" s="16" t="s"/>
+      <x:c r="J6" s="16" t="s"/>
+      <x:c r="K6" s="16" t="s"/>
+      <x:c r="L6" s="16" t="s"/>
+      <x:c r="M6" s="16" t="s"/>
       <x:c r="N6" s="16" t="n">
-        <x:v>11352.6735624995</x:v>
+        <x:v>3476.09237500004</x:v>
       </x:c>
       <x:c r="O6" s="16" t="n">
-        <x:v>9482.03477083333</x:v>
+        <x:v>15505.5166666665</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
-        <x:v>18411.4360624999</x:v>
+        <x:v>21825.8421458333</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>14257.4414583332</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>376.958958333358</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1422,46 +1604,52 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>10821.9178472225</x:v>
+        <x:v>10124.2156428571</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>940777.637437506</x:v>
+        <x:v>1321146.12897917</x:v>
       </x:c>
       <x:c r="E7" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>21481.4164375004</x:v>
       </x:c>
       <x:c r="F7" s="16" t="n">
-        <x:v>14675.659833333</x:v>
+        <x:v>7403.21904166648</x:v>
       </x:c>
       <x:c r="G7" s="16" t="n">
-        <x:v>10132.9087083337</x:v>
+        <x:v>15039.560208333</x:v>
       </x:c>
       <x:c r="H7" s="16" t="n">
-        <x:v>9893.90727083397</x:v>
+        <x:v>2756.19960416644</x:v>
       </x:c>
       <x:c r="I7" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2455.79329166654</x:v>
       </x:c>
       <x:c r="J7" s="16" t="n">
-        <x:v>13694.9771041675</x:v>
+        <x:v>42353.360604167</x:v>
       </x:c>
       <x:c r="K7" s="16" t="n">
-        <x:v>27198.3764375012</x:v>
+        <x:v>4273.58633333351</x:v>
       </x:c>
       <x:c r="L7" s="16" t="n">
-        <x:v>6785.00722916692</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M7" s="16" t="n">
-        <x:v>7101.88233333325</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
-        <x:v>11555.0192291668</x:v>
+        <x:v>11352.6735624995</x:v>
       </x:c>
       <x:c r="O7" s="16" t="n">
-        <x:v>8266.94268750015</x:v>
+        <x:v>9482.03477083333</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
-        <x:v>20558.3333333336</x:v>
+        <x:v>18411.4360624999</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>6729.73908333294</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1469,10 +1657,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>10757.3966406252</x:v>
+        <x:v>9314.09251934543</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>1787438.94050002</x:v>
+        <x:v>1788747.47608335</x:v>
       </x:c>
       <x:c r="E8" s="16" t="n">
         <x:v>20185.4792708333</x:v>
@@ -1509,6 +1697,12 @@
       </x:c>
       <x:c r="P8" s="16" t="n">
         <x:v>4436.42583333352</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>962.9533333336</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>345.582249999978</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1516,46 +1710,34 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>7552.29038888884</x:v>
+        <x:v>7815.23234166666</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>485211.104604165</x:v>
-      </x:c>
-      <x:c r="E9" s="16" t="n">
-        <x:v>7944.08993749996</x:v>
-      </x:c>
-      <x:c r="F9" s="16" t="n">
-        <x:v>3396.75349999993</x:v>
-      </x:c>
-      <x:c r="G9" s="16" t="n">
-        <x:v>10974.0166666665</x:v>
-      </x:c>
-      <x:c r="H9" s="16" t="n">
-        <x:v>17444.8518541665</x:v>
-      </x:c>
-      <x:c r="I9" s="16" t="n">
-        <x:v>9937.17906250001</x:v>
-      </x:c>
-      <x:c r="J9" s="16" t="n">
-        <x:v>11865.1309166665</x:v>
-      </x:c>
-      <x:c r="K9" s="16" t="n">
-        <x:v>14913.4446666667</x:v>
-      </x:c>
-      <x:c r="L9" s="16" t="n">
-        <x:v>880.293500000029</x:v>
-      </x:c>
-      <x:c r="M9" s="16" t="n">
-        <x:v>2052.59662499995</x:v>
-      </x:c>
+        <x:v>596443.355583334</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s"/>
+      <x:c r="F9" s="16" t="s"/>
+      <x:c r="G9" s="16" t="s"/>
+      <x:c r="H9" s="16" t="s"/>
+      <x:c r="I9" s="16" t="s"/>
+      <x:c r="J9" s="16" t="s"/>
+      <x:c r="K9" s="16" t="s"/>
+      <x:c r="L9" s="16" t="s"/>
+      <x:c r="M9" s="16" t="s"/>
       <x:c r="N9" s="16" t="n">
-        <x:v>3415.39027083333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="16" t="n">
-        <x:v>6351.86391666665</x:v>
+        <x:v>10936.3304166666</x:v>
       </x:c>
       <x:c r="P9" s="16" t="n">
-        <x:v>1451.87375000003</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>28139.8312916667</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1592,52 +1774,58 @@
         <x:v>12257.6366249999</x:v>
       </x:c>
       <x:c r="P10" s="16" t="s"/>
+      <x:c r="Q10" s="16" t="s"/>
+      <x:c r="R10" s="16" t="s"/>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>5408.34794618055</x:v>
+        <x:v>6636.99054967943</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>300140.707770832</x:v>
+        <x:v>515433.166979167</x:v>
       </x:c>
       <x:c r="E11" s="16" t="n">
-        <x:v>3252.902</x:v>
+        <x:v>1344.544375</x:v>
       </x:c>
       <x:c r="F11" s="16" t="n">
-        <x:v>15289.0771458333</x:v>
+        <x:v>645.02291666664</x:v>
       </x:c>
       <x:c r="G11" s="16" t="n">
-        <x:v>11140.60875</x:v>
+        <x:v>5130.41729166656</x:v>
       </x:c>
       <x:c r="H11" s="16" t="n">
-        <x:v>1.31233333330601</x:v>
+        <x:v>8602.53645833337</x:v>
       </x:c>
       <x:c r="I11" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4400.29066666646</x:v>
       </x:c>
       <x:c r="J11" s="16" t="n">
-        <x:v>1670.12058333331</x:v>
+        <x:v>14376.2753541668</x:v>
       </x:c>
       <x:c r="K11" s="16" t="n">
-        <x:v>1187.98041666666</x:v>
+        <x:v>7193.35291666654</x:v>
       </x:c>
       <x:c r="L11" s="16" t="n">
-        <x:v>11862.1324374999</x:v>
-      </x:c>
-      <x:c r="M11" s="16" t="n">
-        <x:v>759.664000000048</x:v>
-      </x:c>
+        <x:v>1852.66208333336</x:v>
+      </x:c>
+      <x:c r="M11" s="16" t="s"/>
       <x:c r="N11" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1618.00233333342</x:v>
       </x:c>
       <x:c r="O11" s="16" t="n">
-        <x:v>19669.5181875</x:v>
+        <x:v>16505.5009791661</x:v>
       </x:c>
       <x:c r="P11" s="16" t="n">
-        <x:v>66.8595000000205</x:v>
+        <x:v>7503.25024999987</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>15908.7336041668</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>1200.28791666671</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1645,46 +1833,52 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>5253.93920833327</x:v>
+        <x:v>6606.2745208333</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>942082.38122916</x:v>
+        <x:v>487071.463229165</x:v>
       </x:c>
       <x:c r="E12" s="16" t="n">
-        <x:v>1778.0821041665</x:v>
+        <x:v>7944.08993749996</x:v>
       </x:c>
       <x:c r="F12" s="16" t="n">
-        <x:v>2194.0746666668</x:v>
+        <x:v>3396.75349999993</x:v>
       </x:c>
       <x:c r="G12" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>10974.0166666665</x:v>
       </x:c>
       <x:c r="H12" s="16" t="n">
-        <x:v>11105.9365416666</x:v>
+        <x:v>17444.8518541665</x:v>
       </x:c>
       <x:c r="I12" s="16" t="n">
-        <x:v>2053.93870833307</x:v>
+        <x:v>9937.17906250001</x:v>
       </x:c>
       <x:c r="J12" s="16" t="n">
-        <x:v>13942.3371458333</x:v>
+        <x:v>11865.1309166665</x:v>
       </x:c>
       <x:c r="K12" s="16" t="n">
-        <x:v>19742.5273333329</x:v>
+        <x:v>14913.4446666667</x:v>
       </x:c>
       <x:c r="L12" s="16" t="n">
-        <x:v>638.363749999902</x:v>
+        <x:v>880.293500000029</x:v>
       </x:c>
       <x:c r="M12" s="16" t="n">
-        <x:v>157.280000000028</x:v>
+        <x:v>2052.59662499995</x:v>
       </x:c>
       <x:c r="N12" s="16" t="n">
-        <x:v>410.826833333354</x:v>
+        <x:v>3415.39027083333</x:v>
       </x:c>
       <x:c r="O12" s="16" t="n">
-        <x:v>931.684916666709</x:v>
+        <x:v>6351.86391666665</x:v>
       </x:c>
       <x:c r="P12" s="16" t="n">
-        <x:v>10092.2185000001</x:v>
+        <x:v>1451.87375000003</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>1860.35862500005</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
@@ -1692,115 +1886,151 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>5150.16645138886</x:v>
+        <x:v>4759.55630803566</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>204172.348541666</x:v>
-      </x:c>
-      <x:c r="E13" s="16" t="s"/>
-      <x:c r="F13" s="16" t="s"/>
-      <x:c r="G13" s="16" t="s"/>
-      <x:c r="H13" s="16" t="s"/>
-      <x:c r="I13" s="16" t="s"/>
-      <x:c r="J13" s="16" t="s"/>
+        <x:v>945668.89904166</x:v>
+      </x:c>
+      <x:c r="E13" s="16" t="n">
+        <x:v>1778.0821041665</x:v>
+      </x:c>
+      <x:c r="F13" s="16" t="n">
+        <x:v>2194.0746666668</x:v>
+      </x:c>
+      <x:c r="G13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="16" t="n">
+        <x:v>11105.9365416666</x:v>
+      </x:c>
+      <x:c r="I13" s="16" t="n">
+        <x:v>2053.93870833307</x:v>
+      </x:c>
+      <x:c r="J13" s="16" t="n">
+        <x:v>13942.3371458333</x:v>
+      </x:c>
       <x:c r="K13" s="16" t="n">
-        <x:v>215.013833333331</x:v>
+        <x:v>19742.5273333329</x:v>
       </x:c>
       <x:c r="L13" s="16" t="n">
-        <x:v>4860.68445833327</x:v>
+        <x:v>638.363749999902</x:v>
       </x:c>
       <x:c r="M13" s="16" t="n">
-        <x:v>7447.90754166659</x:v>
+        <x:v>157.280000000028</x:v>
       </x:c>
       <x:c r="N13" s="16" t="n">
-        <x:v>4560.77197916672</x:v>
+        <x:v>410.826833333354</x:v>
       </x:c>
       <x:c r="O13" s="16" t="n">
-        <x:v>7561.81999999989</x:v>
+        <x:v>931.684916666709</x:v>
       </x:c>
       <x:c r="P13" s="16" t="n">
-        <x:v>6254.80089583338</x:v>
-      </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+        <x:v>10092.2185000001</x:v>
+      </x:c>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>3586.51781250001</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>3645.4434722222</x:v>
+        <x:v>4635.7268110119</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>568303.524291667</x:v>
-      </x:c>
-      <x:c r="E14" s="16" t="s"/>
-      <x:c r="F14" s="16" t="s"/>
-      <x:c r="G14" s="16" t="s"/>
-      <x:c r="H14" s="16" t="s"/>
-      <x:c r="I14" s="16" t="s"/>
-      <x:c r="J14" s="16" t="s"/>
-      <x:c r="K14" s="16" t="s"/>
-      <x:c r="L14" s="16" t="s"/>
-      <x:c r="M14" s="16" t="s"/>
+        <x:v>300140.707770832</x:v>
+      </x:c>
+      <x:c r="E14" s="16" t="n">
+        <x:v>3252.902</x:v>
+      </x:c>
+      <x:c r="F14" s="16" t="n">
+        <x:v>15289.0771458333</x:v>
+      </x:c>
+      <x:c r="G14" s="16" t="n">
+        <x:v>11140.60875</x:v>
+      </x:c>
+      <x:c r="H14" s="16" t="n">
+        <x:v>1.31233333330601</x:v>
+      </x:c>
+      <x:c r="I14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J14" s="16" t="n">
+        <x:v>1670.12058333331</x:v>
+      </x:c>
+      <x:c r="K14" s="16" t="n">
+        <x:v>1187.98041666666</x:v>
+      </x:c>
+      <x:c r="L14" s="16" t="n">
+        <x:v>11862.1324374999</x:v>
+      </x:c>
+      <x:c r="M14" s="16" t="n">
+        <x:v>759.664000000048</x:v>
+      </x:c>
       <x:c r="N14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O14" s="16" t="n">
-        <x:v>10936.3304166666</x:v>
+        <x:v>19669.5181875</x:v>
       </x:c>
       <x:c r="P14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+        <x:v>66.8595000000205</x:v>
+      </x:c>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>3635.31856597216</x:v>
+        <x:v>4246.21814583331</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>1469116.25310416</x:v>
-      </x:c>
-      <x:c r="E15" s="16" t="n">
-        <x:v>4068.95362500008</x:v>
-      </x:c>
-      <x:c r="F15" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G15" s="16" t="n">
-        <x:v>385.901833333308</x:v>
-      </x:c>
-      <x:c r="H15" s="16" t="n">
-        <x:v>504.89683333342</x:v>
-      </x:c>
-      <x:c r="I15" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J15" s="16" t="n">
-        <x:v>501.929416666739</x:v>
-      </x:c>
+        <x:v>207241.095</x:v>
+      </x:c>
+      <x:c r="E15" s="16" t="s"/>
+      <x:c r="F15" s="16" t="s"/>
+      <x:c r="G15" s="16" t="s"/>
+      <x:c r="H15" s="16" t="s"/>
+      <x:c r="I15" s="16" t="s"/>
+      <x:c r="J15" s="16" t="s"/>
       <x:c r="K15" s="16" t="n">
-        <x:v>8762.98549999925</x:v>
+        <x:v>215.013833333331</x:v>
       </x:c>
       <x:c r="L15" s="16" t="n">
-        <x:v>16059.5747500001</x:v>
+        <x:v>4860.68445833327</x:v>
       </x:c>
       <x:c r="M15" s="16" t="n">
-        <x:v>2067.62624999997</x:v>
+        <x:v>7447.90754166659</x:v>
       </x:c>
       <x:c r="N15" s="16" t="n">
-        <x:v>5702.92441666662</x:v>
+        <x:v>4560.77197916672</x:v>
       </x:c>
       <x:c r="O15" s="16" t="n">
-        <x:v>5259.9001666666</x:v>
+        <x:v>7561.81999999989</x:v>
       </x:c>
       <x:c r="P15" s="16" t="n">
-        <x:v>309.129999999888</x:v>
+        <x:v>6254.80089583338</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>3068.74645833333</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
@@ -1808,46 +2038,32 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>3399.72963194442</x:v>
+        <x:v>3590.34648958335</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>510965.125791665</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="n">
-        <x:v>631.747708333307</x:v>
-      </x:c>
-      <x:c r="F16" s="16" t="n">
-        <x:v>6396.37762499991</x:v>
-      </x:c>
-      <x:c r="G16" s="16" t="n">
-        <x:v>1733.45249999996</x:v>
-      </x:c>
-      <x:c r="H16" s="16" t="n">
-        <x:v>503.290166666615</x:v>
-      </x:c>
-      <x:c r="I16" s="16" t="n">
-        <x:v>267.578833333333</x:v>
-      </x:c>
-      <x:c r="J16" s="16" t="n">
-        <x:v>8274.22970833333</x:v>
-      </x:c>
-      <x:c r="K16" s="16" t="n">
-        <x:v>1374.18487499998</x:v>
-      </x:c>
-      <x:c r="L16" s="16" t="n">
-        <x:v>1752.97366666666</x:v>
-      </x:c>
+        <x:v>585711.842833333</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="s"/>
+      <x:c r="F16" s="16" t="s"/>
+      <x:c r="G16" s="16" t="s"/>
+      <x:c r="H16" s="16" t="s"/>
+      <x:c r="I16" s="16" t="s"/>
+      <x:c r="J16" s="16" t="s"/>
+      <x:c r="K16" s="16" t="s"/>
+      <x:c r="L16" s="16" t="s"/>
       <x:c r="M16" s="16" t="n">
-        <x:v>757.786333333293</x:v>
-      </x:c>
-      <x:c r="N16" s="16" t="n">
-        <x:v>4120.16512499994</x:v>
-      </x:c>
-      <x:c r="O16" s="16" t="n">
-        <x:v>11814.0680416668</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N16" s="16" t="s"/>
+      <x:c r="O16" s="16" t="s"/>
       <x:c r="P16" s="16" t="n">
-        <x:v>3170.90099999995</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>14361.3859583334</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
@@ -1855,45 +2071,51 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>3242.57492187501</x:v>
+        <x:v>3328.38222321427</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>856329.886916668</x:v>
+        <x:v>1472089.7814375</x:v>
       </x:c>
       <x:c r="E17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4068.95362500008</x:v>
       </x:c>
       <x:c r="F17" s="16" t="n">
-        <x:v>3252.49966666673</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>385.901833333308</x:v>
       </x:c>
       <x:c r="H17" s="16" t="n">
-        <x:v>5646.06270833337</x:v>
+        <x:v>504.89683333342</x:v>
       </x:c>
       <x:c r="I17" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="16" t="n">
-        <x:v>1100.42116666667</x:v>
+        <x:v>501.929416666739</x:v>
       </x:c>
       <x:c r="K17" s="16" t="n">
-        <x:v>11097.3636666668</x:v>
+        <x:v>8762.98549999925</x:v>
       </x:c>
       <x:c r="L17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>16059.5747500001</x:v>
       </x:c>
       <x:c r="M17" s="16" t="n">
-        <x:v>1791.76875000005</x:v>
+        <x:v>2067.62624999997</x:v>
       </x:c>
       <x:c r="N17" s="16" t="n">
-        <x:v>2400.8084166667</x:v>
+        <x:v>5702.92441666662</x:v>
       </x:c>
       <x:c r="O17" s="16" t="n">
-        <x:v>13621.9746874998</x:v>
+        <x:v>5259.9001666666</x:v>
       </x:c>
       <x:c r="P17" s="16" t="n">
+        <x:v>309.129999999888</x:v>
+      </x:c>
+      <x:c r="Q17" s="16" t="n">
+        <x:v>2973.52833333379</x:v>
+      </x:c>
+      <x:c r="R17" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1902,38 +2124,52 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>2187.91848437504</x:v>
+        <x:v>3246.50594940474</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>551640.2410625</x:v>
+        <x:v>515619.453499998</x:v>
       </x:c>
       <x:c r="E18" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" s="16" t="s"/>
-      <x:c r="G18" s="16" t="s"/>
-      <x:c r="H18" s="16" t="s"/>
-      <x:c r="I18" s="16" t="s"/>
+        <x:v>631.747708333307</x:v>
+      </x:c>
+      <x:c r="F18" s="16" t="n">
+        <x:v>6396.37762499991</x:v>
+      </x:c>
+      <x:c r="G18" s="16" t="n">
+        <x:v>1733.45249999996</x:v>
+      </x:c>
+      <x:c r="H18" s="16" t="n">
+        <x:v>503.290166666615</x:v>
+      </x:c>
+      <x:c r="I18" s="16" t="n">
+        <x:v>267.578833333333</x:v>
+      </x:c>
       <x:c r="J18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>8274.22970833333</x:v>
       </x:c>
       <x:c r="K18" s="16" t="n">
-        <x:v>7707.08033333346</x:v>
+        <x:v>1374.18487499998</x:v>
       </x:c>
       <x:c r="L18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1752.97366666666</x:v>
       </x:c>
       <x:c r="M18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>757.786333333293</x:v>
       </x:c>
       <x:c r="N18" s="16" t="n">
-        <x:v>37.0538333334262</x:v>
+        <x:v>4120.16512499994</x:v>
       </x:c>
       <x:c r="O18" s="16" t="n">
-        <x:v>3482.30545833334</x:v>
+        <x:v>11814.0680416668</x:v>
       </x:c>
       <x:c r="P18" s="16" t="n">
-        <x:v>6276.90825000009</x:v>
+        <x:v>3170.90099999995</x:v>
+      </x:c>
+      <x:c r="Q18" s="16" t="n">
+        <x:v>3382.40054166666</x:v>
+      </x:c>
+      <x:c r="R18" s="16" t="n">
+        <x:v>1271.9271666666</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:146">
@@ -1941,46 +2177,52 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>1597.824484375</x:v>
+        <x:v>2981.40790029764</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>674768.229374999</x:v>
+        <x:v>859158.698458335</x:v>
       </x:c>
       <x:c r="E19" s="16" t="n">
-        <x:v>7508.22049999994</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="16" t="n">
-        <x:v>628.447416666662</x:v>
+        <x:v>3252.49966666673</x:v>
       </x:c>
       <x:c r="G19" s="16" t="n">
-        <x:v>59.5864999999758</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="16" t="n">
-        <x:v>82.7060000000056</x:v>
+        <x:v>5646.06270833337</x:v>
       </x:c>
       <x:c r="I19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J19" s="16" t="n">
-        <x:v>103.938166666543</x:v>
+        <x:v>1100.42116666667</x:v>
       </x:c>
       <x:c r="K19" s="16" t="n">
-        <x:v>3.66700000001583</x:v>
+        <x:v>11097.3636666668</x:v>
       </x:c>
       <x:c r="L19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1791.76875000005</x:v>
       </x:c>
       <x:c r="N19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2400.8084166667</x:v>
       </x:c>
       <x:c r="O19" s="16" t="n">
-        <x:v>9490.24881250004</x:v>
+        <x:v>13621.9746874998</x:v>
       </x:c>
       <x:c r="P19" s="16" t="n">
-        <x:v>1297.07941666676</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q19" s="16" t="n">
+        <x:v>2828.81154166686</x:v>
+      </x:c>
+      <x:c r="R19" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
@@ -1988,35 +2230,51 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>989.395613095191</x:v>
+        <x:v>2303.66010416667</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>569051.829791666</x:v>
-      </x:c>
-      <x:c r="E20" s="16" t="s"/>
-      <x:c r="F20" s="16" t="s"/>
-      <x:c r="G20" s="16" t="s"/>
-      <x:c r="H20" s="16" t="s"/>
-      <x:c r="I20" s="16" t="s"/>
+        <x:v>687845.577020833</x:v>
+      </x:c>
+      <x:c r="E20" s="16" t="n">
+        <x:v>7508.22049999994</x:v>
+      </x:c>
+      <x:c r="F20" s="16" t="n">
+        <x:v>628.447416666662</x:v>
+      </x:c>
+      <x:c r="G20" s="16" t="n">
+        <x:v>59.5864999999758</x:v>
+      </x:c>
+      <x:c r="H20" s="16" t="n">
+        <x:v>82.7060000000056</x:v>
+      </x:c>
+      <x:c r="I20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="J20" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>103.938166666543</x:v>
       </x:c>
       <x:c r="K20" s="16" t="n">
-        <x:v>3351.35362499999</x:v>
+        <x:v>3.66700000001583</x:v>
       </x:c>
       <x:c r="L20" s="16" t="n">
-        <x:v>94.6836666666204</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M20" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N20" s="16" t="n">
-        <x:v>854.982333333115</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O20" s="16" t="n">
-        <x:v>2624.74966666661</x:v>
+        <x:v>9490.24881250004</x:v>
       </x:c>
       <x:c r="P20" s="16" t="n">
+        <x:v>1297.07941666676</x:v>
+      </x:c>
+      <x:c r="Q20" s="16" t="n">
+        <x:v>13077.3476458334</x:v>
+      </x:c>
+      <x:c r="R20" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2025,92 +2283,110 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="15" t="n">
-        <x:v>653.630385416633</x:v>
+        <x:v>1886.74752083336</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>323133.559208333</x:v>
+        <x:v>553004.368395834</x:v>
       </x:c>
       <x:c r="E21" s="16" t="n">
-        <x:v>951.640916666598</x:v>
-      </x:c>
-      <x:c r="F21" s="16" t="n">
-        <x:v>1640.58595833328</x:v>
-      </x:c>
-      <x:c r="G21" s="16" t="n">
-        <x:v>22.2946666666539</x:v>
-      </x:c>
-      <x:c r="H21" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F21" s="16" t="s"/>
+      <x:c r="G21" s="16" t="s"/>
+      <x:c r="H21" s="16" t="s"/>
       <x:c r="I21" s="16" t="s"/>
-      <x:c r="J21" s="16" t="s"/>
-      <x:c r="K21" s="16" t="s"/>
-      <x:c r="L21" s="16" t="s"/>
-      <x:c r="M21" s="16" t="s"/>
-      <x:c r="N21" s="16" t="s"/>
-      <x:c r="O21" s="16" t="s"/>
-      <x:c r="P21" s="16" t="s"/>
+      <x:c r="J21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K21" s="16" t="n">
+        <x:v>7707.08033333346</x:v>
+      </x:c>
+      <x:c r="L21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N21" s="16" t="n">
+        <x:v>37.0538333334262</x:v>
+      </x:c>
+      <x:c r="O21" s="16" t="n">
+        <x:v>3482.30545833334</x:v>
+      </x:c>
+      <x:c r="P21" s="16" t="n">
+        <x:v>6276.90825000009</x:v>
+      </x:c>
+      <x:c r="Q21" s="16" t="n">
+        <x:v>1364.12733333325</x:v>
+      </x:c>
+      <x:c r="R21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
       <x:c r="B22" s="14" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="15" t="n">
-        <x:v>483.560715277718</x:v>
+        <x:v>1813.90104687496</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>1110643.05104166</x:v>
-      </x:c>
-      <x:c r="E22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H22" s="16" t="n">
-        <x:v>2901.36429166631</x:v>
-      </x:c>
-      <x:c r="I22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>576637.268875</x:v>
+      </x:c>
+      <x:c r="E22" s="16" t="s"/>
+      <x:c r="F22" s="16" t="s"/>
+      <x:c r="G22" s="16" t="s"/>
+      <x:c r="H22" s="16" t="s"/>
+      <x:c r="I22" s="16" t="s"/>
       <x:c r="J22" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K22" s="16" t="s"/>
-      <x:c r="L22" s="16" t="s"/>
-      <x:c r="M22" s="16" t="s"/>
-      <x:c r="N22" s="16" t="s"/>
-      <x:c r="O22" s="16" t="s"/>
-      <x:c r="P22" s="16" t="s"/>
+      <x:c r="K22" s="16" t="n">
+        <x:v>3351.35362499999</x:v>
+      </x:c>
+      <x:c r="L22" s="16" t="n">
+        <x:v>94.6836666666204</x:v>
+      </x:c>
+      <x:c r="M22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N22" s="16" t="n">
+        <x:v>854.982333333115</x:v>
+      </x:c>
+      <x:c r="O22" s="16" t="n">
+        <x:v>2624.74966666661</x:v>
+      </x:c>
+      <x:c r="P22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q22" s="16" t="n">
+        <x:v>7585.43908333336</x:v>
+      </x:c>
+      <x:c r="R22" s="16" t="s"/>
     </x:row>
     <x:row r="23" spans="1:146">
       <x:c r="B23" s="14" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>454.911441666702</x:v>
+        <x:v>653.630385416633</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>644172.884145832</x:v>
+        <x:v>323133.559208333</x:v>
       </x:c>
       <x:c r="E23" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>951.640916666598</x:v>
       </x:c>
       <x:c r="F23" s="16" t="n">
-        <x:v>2048.66437500028</x:v>
+        <x:v>1640.58595833328</x:v>
       </x:c>
       <x:c r="G23" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>22.2946666666539</x:v>
       </x:c>
       <x:c r="H23" s="16" t="n">
-        <x:v>225.89283333323</x:v>
-      </x:c>
-      <x:c r="I23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I23" s="16" t="s"/>
       <x:c r="J23" s="16" t="s"/>
       <x:c r="K23" s="16" t="s"/>
       <x:c r="L23" s="16" t="s"/>
@@ -2118,19 +2394,21 @@
       <x:c r="N23" s="16" t="s"/>
       <x:c r="O23" s="16" t="s"/>
       <x:c r="P23" s="16" t="s"/>
+      <x:c r="Q23" s="16" t="s"/>
+      <x:c r="R23" s="16" t="s"/>
     </x:row>
     <x:row r="24" spans="1:146">
       <x:c r="B24" s="14" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="15" t="n">
-        <x:v>170.859641666664</x:v>
+        <x:v>483.560715277718</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>955556.788249999</x:v>
+        <x:v>1110643.05104166</x:v>
       </x:c>
       <x:c r="E24" s="16" t="n">
-        <x:v>760.257708333316</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F24" s="16" t="n">
         <x:v>0</x:v>
@@ -2139,34 +2417,48 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="16" t="n">
-        <x:v>12.1646666666493</x:v>
+        <x:v>2901.36429166631</x:v>
       </x:c>
       <x:c r="I24" s="16" t="n">
-        <x:v>81.8758333333535</x:v>
-      </x:c>
-      <x:c r="J24" s="16" t="s"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="K24" s="16" t="s"/>
       <x:c r="L24" s="16" t="s"/>
       <x:c r="M24" s="16" t="s"/>
       <x:c r="N24" s="16" t="s"/>
       <x:c r="O24" s="16" t="s"/>
       <x:c r="P24" s="16" t="s"/>
+      <x:c r="Q24" s="16" t="s"/>
+      <x:c r="R24" s="16" t="s"/>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>454.911441666702</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>1016113.28504167</x:v>
-      </x:c>
-      <x:c r="E25" s="16" t="s"/>
-      <x:c r="F25" s="16" t="s"/>
-      <x:c r="G25" s="16" t="s"/>
-      <x:c r="H25" s="16" t="s"/>
-      <x:c r="I25" s="16" t="s"/>
+        <x:v>644172.884145832</x:v>
+      </x:c>
+      <x:c r="E25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F25" s="16" t="n">
+        <x:v>2048.66437500028</x:v>
+      </x:c>
+      <x:c r="G25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="16" t="n">
+        <x:v>225.89283333323</x:v>
+      </x:c>
+      <x:c r="I25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="J25" s="16" t="s"/>
       <x:c r="K25" s="16" t="s"/>
       <x:c r="L25" s="16" t="s"/>
@@ -2174,22 +2466,34 @@
       <x:c r="N25" s="16" t="s"/>
       <x:c r="O25" s="16" t="s"/>
       <x:c r="P25" s="16" t="s"/>
+      <x:c r="Q25" s="16" t="s"/>
+      <x:c r="R25" s="16" t="s"/>
     </x:row>
     <x:row r="26" spans="1:146">
       <x:c r="B26" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>170.859641666664</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>159190.037958333</x:v>
-      </x:c>
-      <x:c r="E26" s="16" t="s"/>
-      <x:c r="F26" s="16" t="s"/>
-      <x:c r="G26" s="16" t="s"/>
-      <x:c r="H26" s="16" t="s"/>
-      <x:c r="I26" s="16" t="s"/>
+        <x:v>955556.788249999</x:v>
+      </x:c>
+      <x:c r="E26" s="16" t="n">
+        <x:v>760.257708333316</x:v>
+      </x:c>
+      <x:c r="F26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="16" t="n">
+        <x:v>12.1646666666493</x:v>
+      </x:c>
+      <x:c r="I26" s="16" t="n">
+        <x:v>81.8758333333535</x:v>
+      </x:c>
       <x:c r="J26" s="16" t="s"/>
       <x:c r="K26" s="16" t="s"/>
       <x:c r="L26" s="16" t="s"/>
@@ -2197,6 +2501,8 @@
       <x:c r="N26" s="16" t="s"/>
       <x:c r="O26" s="16" t="s"/>
       <x:c r="P26" s="16" t="s"/>
+      <x:c r="Q26" s="16" t="s"/>
+      <x:c r="R26" s="16" t="s"/>
     </x:row>
     <x:row r="27" spans="1:146">
       <x:c r="B27" s="14" t="s">
@@ -2206,7 +2512,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>465040.011458335</x:v>
+        <x:v>1016113.28504167</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -2220,6 +2526,8 @@
       <x:c r="N27" s="16" t="s"/>
       <x:c r="O27" s="16" t="s"/>
       <x:c r="P27" s="16" t="s"/>
+      <x:c r="Q27" s="16" t="s"/>
+      <x:c r="R27" s="16" t="s"/>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
@@ -2229,7 +2537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>510442.024791665</x:v>
+        <x:v>159190.037958333</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -2243,6 +2551,8 @@
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
       <x:c r="P28" s="16" t="s"/>
+      <x:c r="Q28" s="16" t="s"/>
+      <x:c r="R28" s="16" t="s"/>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
@@ -2252,7 +2562,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>611868.559416667</x:v>
+        <x:v>465040.011458335</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
@@ -2266,6 +2576,8 @@
       <x:c r="N29" s="16" t="s"/>
       <x:c r="O29" s="16" t="s"/>
       <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="s"/>
+      <x:c r="R29" s="16" t="s"/>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
@@ -2275,7 +2587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>366587.142625</x:v>
+        <x:v>510442.024791665</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s"/>
       <x:c r="F30" s="16" t="s"/>
@@ -2289,6 +2601,8 @@
       <x:c r="N30" s="16" t="s"/>
       <x:c r="O30" s="16" t="s"/>
       <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
@@ -2298,7 +2612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>508902.852833334</x:v>
+        <x:v>611868.559416667</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
@@ -2312,6 +2626,8 @@
       <x:c r="N31" s="16" t="s"/>
       <x:c r="O31" s="16" t="s"/>
       <x:c r="P31" s="16" t="s"/>
+      <x:c r="Q31" s="16" t="s"/>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
@@ -2321,7 +2637,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>1000495.79604166</x:v>
+        <x:v>366587.142625</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -2335,6 +2651,8 @@
       <x:c r="N32" s="16" t="s"/>
       <x:c r="O32" s="16" t="s"/>
       <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
@@ -2344,7 +2662,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>2409164.839875</x:v>
+        <x:v>508902.852833334</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2358,6 +2676,8 @@
       <x:c r="N33" s="16" t="s"/>
       <x:c r="O33" s="16" t="s"/>
       <x:c r="P33" s="16" t="s"/>
+      <x:c r="Q33" s="16" t="s"/>
+      <x:c r="R33" s="16" t="s"/>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -2367,11 +2687,9 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>1051221.92125001</x:v>
-      </x:c>
-      <x:c r="E34" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>1000495.79604166</x:v>
+      </x:c>
+      <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
       <x:c r="G34" s="16" t="s"/>
       <x:c r="H34" s="16" t="s"/>
@@ -2383,6 +2701,8 @@
       <x:c r="N34" s="16" t="s"/>
       <x:c r="O34" s="16" t="s"/>
       <x:c r="P34" s="16" t="s"/>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -2392,7 +2712,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>302002.38</x:v>
+        <x:v>2409164.839875</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -2406,6 +2726,8 @@
       <x:c r="N35" s="16" t="s"/>
       <x:c r="O35" s="16" t="s"/>
       <x:c r="P35" s="16" t="s"/>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -2415,9 +2737,11 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>358585.330145833</x:v>
-      </x:c>
-      <x:c r="E36" s="16" t="s"/>
+        <x:v>1051221.92125001</x:v>
+      </x:c>
+      <x:c r="E36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="F36" s="16" t="s"/>
       <x:c r="G36" s="16" t="s"/>
       <x:c r="H36" s="16" t="s"/>
@@ -2429,6 +2753,8 @@
       <x:c r="N36" s="16" t="s"/>
       <x:c r="O36" s="16" t="s"/>
       <x:c r="P36" s="16" t="s"/>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2438,7 +2764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>386378.185208335</x:v>
+        <x:v>302002.38</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -2452,6 +2778,8 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="s"/>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -2461,7 +2789,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>7363.44266666667</x:v>
+        <x:v>358585.330145833</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -2475,6 +2803,8 @@
       <x:c r="N38" s="16" t="s"/>
       <x:c r="O38" s="16" t="s"/>
       <x:c r="P38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2484,7 +2814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>320219.131166667</x:v>
+        <x:v>386378.185208335</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -2498,6 +2828,8 @@
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
       <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -2507,7 +2839,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>214502.92325</x:v>
+        <x:v>7363.44266666667</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2521,6 +2853,8 @@
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -2530,7 +2864,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="15" t="n">
-        <x:v>477936.661833332</x:v>
+        <x:v>320219.131166667</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s"/>
       <x:c r="F41" s="16" t="s"/>
@@ -2544,6 +2878,8 @@
       <x:c r="N41" s="16" t="s"/>
       <x:c r="O41" s="16" t="s"/>
       <x:c r="P41" s="16" t="s"/>
+      <x:c r="Q41" s="16" t="s"/>
+      <x:c r="R41" s="16" t="s"/>
     </x:row>
     <x:row r="42" spans="1:146">
       <x:c r="B42" s="14" t="s">
@@ -2553,7 +2889,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>253067.528041667</x:v>
+        <x:v>214502.92325</x:v>
       </x:c>
       <x:c r="E42" s="16" t="s"/>
       <x:c r="F42" s="16" t="s"/>
@@ -2567,6 +2903,8 @@
       <x:c r="N42" s="16" t="s"/>
       <x:c r="O42" s="16" t="s"/>
       <x:c r="P42" s="16" t="s"/>
+      <x:c r="Q42" s="16" t="s"/>
+      <x:c r="R42" s="16" t="s"/>
     </x:row>
     <x:row r="43" spans="1:146">
       <x:c r="B43" s="14" t="s">
@@ -2576,7 +2914,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="15" t="n">
-        <x:v>571350.456875</x:v>
+        <x:v>477936.661833332</x:v>
       </x:c>
       <x:c r="E43" s="16" t="s"/>
       <x:c r="F43" s="16" t="s"/>
@@ -2586,14 +2924,12 @@
       <x:c r="J43" s="16" t="s"/>
       <x:c r="K43" s="16" t="s"/>
       <x:c r="L43" s="16" t="s"/>
-      <x:c r="M43" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="M43" s="16" t="s"/>
       <x:c r="N43" s="16" t="s"/>
       <x:c r="O43" s="16" t="s"/>
-      <x:c r="P43" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P43" s="16" t="s"/>
+      <x:c r="Q43" s="16" t="s"/>
+      <x:c r="R43" s="16" t="s"/>
     </x:row>
     <x:row r="44" spans="1:146">
       <x:c r="B44" s="14" t="s">
@@ -2603,7 +2939,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="15" t="n">
-        <x:v>356937.054999998</x:v>
+        <x:v>253067.528041667</x:v>
       </x:c>
       <x:c r="E44" s="16" t="s"/>
       <x:c r="F44" s="16" t="s"/>
@@ -2617,6 +2953,8 @@
       <x:c r="N44" s="16" t="s"/>
       <x:c r="O44" s="16" t="s"/>
       <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="s"/>
     </x:row>
     <x:row r="45" spans="1:146">
       <x:c r="B45" s="14" t="s">
@@ -2626,7 +2964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="15" t="n">
-        <x:v>153545.8918125</x:v>
+        <x:v>356937.054999998</x:v>
       </x:c>
       <x:c r="E45" s="16" t="s"/>
       <x:c r="F45" s="16" t="s"/>
@@ -2640,6 +2978,8 @@
       <x:c r="N45" s="16" t="s"/>
       <x:c r="O45" s="16" t="s"/>
       <x:c r="P45" s="16" t="s"/>
+      <x:c r="Q45" s="16" t="s"/>
+      <x:c r="R45" s="16" t="s"/>
     </x:row>
     <x:row r="46" spans="1:146">
       <x:c r="B46" s="14" t="s">
@@ -2649,7 +2989,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="15" t="n">
-        <x:v>217606.165020832</x:v>
+        <x:v>153545.8918125</x:v>
       </x:c>
       <x:c r="E46" s="16" t="s"/>
       <x:c r="F46" s="16" t="s"/>
@@ -2663,6 +3003,8 @@
       <x:c r="N46" s="16" t="s"/>
       <x:c r="O46" s="16" t="s"/>
       <x:c r="P46" s="16" t="s"/>
+      <x:c r="Q46" s="16" t="s"/>
+      <x:c r="R46" s="16" t="s"/>
     </x:row>
     <x:row r="47" spans="1:146">
       <x:c r="B47" s="14" t="s">
@@ -2672,22 +3014,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="15" t="n">
-        <x:v>70166.7651666665</x:v>
+        <x:v>217606.165020832</x:v>
       </x:c>
       <x:c r="E47" s="16" t="s"/>
       <x:c r="F47" s="16" t="s"/>
       <x:c r="G47" s="16" t="s"/>
       <x:c r="H47" s="16" t="s"/>
       <x:c r="I47" s="16" t="s"/>
-      <x:c r="J47" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J47" s="16" t="s"/>
       <x:c r="K47" s="16" t="s"/>
       <x:c r="L47" s="16" t="s"/>
       <x:c r="M47" s="16" t="s"/>
       <x:c r="N47" s="16" t="s"/>
       <x:c r="O47" s="16" t="s"/>
       <x:c r="P47" s="16" t="s"/>
+      <x:c r="Q47" s="16" t="s"/>
+      <x:c r="R47" s="16" t="s"/>
     </x:row>
     <x:row r="48" spans="1:146">
       <x:c r="B48" s="14" t="s">
@@ -2697,22 +3039,51 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="15" t="n">
-        <x:v>27133.2429166667</x:v>
-      </x:c>
-      <x:c r="E48" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>70166.7651666665</x:v>
+      </x:c>
+      <x:c r="E48" s="16" t="s"/>
       <x:c r="F48" s="16" t="s"/>
       <x:c r="G48" s="16" t="s"/>
       <x:c r="H48" s="16" t="s"/>
       <x:c r="I48" s="16" t="s"/>
-      <x:c r="J48" s="16" t="s"/>
+      <x:c r="J48" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="K48" s="16" t="s"/>
       <x:c r="L48" s="16" t="s"/>
       <x:c r="M48" s="16" t="s"/>
       <x:c r="N48" s="16" t="s"/>
       <x:c r="O48" s="16" t="s"/>
       <x:c r="P48" s="16" t="s"/>
+      <x:c r="Q48" s="16" t="s"/>
+      <x:c r="R48" s="16" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:146">
+      <x:c r="B49" s="14" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C49" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D49" s="15" t="n">
+        <x:v>27133.2429166667</x:v>
+      </x:c>
+      <x:c r="E49" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" s="16" t="s"/>
+      <x:c r="G49" s="16" t="s"/>
+      <x:c r="H49" s="16" t="s"/>
+      <x:c r="I49" s="16" t="s"/>
+      <x:c r="J49" s="16" t="s"/>
+      <x:c r="K49" s="16" t="s"/>
+      <x:c r="L49" s="16" t="s"/>
+      <x:c r="M49" s="16" t="s"/>
+      <x:c r="N49" s="16" t="s"/>
+      <x:c r="O49" s="16" t="s"/>
+      <x:c r="P49" s="16" t="s"/>
+      <x:c r="Q49" s="16" t="s"/>
+      <x:c r="R49" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -2732,7 +3103,7 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C61" sqref="C61"/>
+      <x:selection activeCell="C62" sqref="C62"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,11 +3112,13 @@
     <x:col min="2" max="2" width="23.130625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="20.410625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="14.700625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="17.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="9" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="17.270625" style="0" customWidth="1"/>
-    <x:col min="11" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="6" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="9" max="10" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="11" max="12" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="14" max="16" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="14.700625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -2754,7 +3127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D1" s="13">
         <x:v>44395</x:v>
@@ -2801,57 +3174,57 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E2" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G2" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H2" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I2" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J2" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K2" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M2" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N2" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="O2" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
         <x:v>64</x:v>
@@ -2893,360 +3266,360 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="B6" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>106</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>119</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>130</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>131</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>133</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>134</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>136</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -3254,799 +3627,799 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>144</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>148</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>152</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>157</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>165</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>169</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>178</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>179</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>183</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>184</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>185</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>186</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>187</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>188</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>189</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>192</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>197</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>199</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>200</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>201</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>204</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>205</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>206</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>207</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>208</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>209</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
       <x:c r="B21" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>210</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>211</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
       <x:c r="B22" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>214</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>218</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
       <x:c r="B23" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>221</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>222</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
       <x:c r="B24" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>224</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>225</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>227</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>229</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
       <x:c r="B25" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
       <x:c r="B26" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
@@ -4054,49 +4427,49 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
@@ -4104,49 +4477,49 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -4154,49 +4527,49 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -4204,49 +4577,49 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
@@ -4254,49 +4627,49 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -4304,49 +4677,49 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -4354,49 +4727,49 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -4404,49 +4777,49 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -4454,49 +4827,49 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -4504,49 +4877,49 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -4554,49 +4927,49 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -4604,49 +4977,49 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C38" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -4654,49 +5027,49 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C39" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -4704,49 +5077,49 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -4754,49 +5127,49 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C41" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -4804,49 +5177,49 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C42" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -4854,49 +5227,49 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C43" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -4904,49 +5277,49 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C44" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -4954,49 +5327,49 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C45" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -5004,49 +5377,49 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C46" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -5054,49 +5427,49 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C47" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -5104,49 +5477,99 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C48" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:36">
+      <x:c r="B49" s="14" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C49" s="18" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D49" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="H49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="J49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="K49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="L49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="M49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="N49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="O49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="P49" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="Q49" s="19" t="s">
+        <x:v>134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
